--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema7a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H2">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I2">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J2">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>7785.534654631519</v>
+        <v>11614.08534912696</v>
       </c>
       <c r="R2">
-        <v>31142.13861852607</v>
+        <v>46456.34139650782</v>
       </c>
       <c r="S2">
-        <v>0.1171325207865999</v>
+        <v>0.2282967019790174</v>
       </c>
       <c r="T2">
-        <v>0.07427140304530347</v>
+        <v>0.1762302676174309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H3">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I3">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J3">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>5618.295822800295</v>
+        <v>6843.461445206452</v>
       </c>
       <c r="R3">
-        <v>33709.77493680177</v>
+        <v>41060.76867123871</v>
       </c>
       <c r="S3">
-        <v>0.08452664864293373</v>
+        <v>0.1345211121751086</v>
       </c>
       <c r="T3">
-        <v>0.08039500149833223</v>
+        <v>0.1557623789128984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H4">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I4">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J4">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>3998.890482554949</v>
+        <v>4472.227945170918</v>
       </c>
       <c r="R4">
-        <v>23993.34289532969</v>
+        <v>26833.36767102551</v>
       </c>
       <c r="S4">
-        <v>0.06016287170368684</v>
+        <v>0.08791005573742128</v>
       </c>
       <c r="T4">
-        <v>0.05722212152517679</v>
+        <v>0.1017913039122193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H5">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I5">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J5">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>6618.536316860977</v>
+        <v>9913.307790522205</v>
       </c>
       <c r="R5">
-        <v>26474.14526744391</v>
+        <v>39653.23116208882</v>
       </c>
       <c r="S5">
-        <v>0.09957515791807571</v>
+        <v>0.1948647186796543</v>
       </c>
       <c r="T5">
-        <v>0.06313862825941341</v>
+        <v>0.1504229418314905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H6">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I6">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J6">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>5758.746018357988</v>
+        <v>3448.81901321487</v>
       </c>
       <c r="R6">
-        <v>34552.47611014792</v>
+        <v>20692.91407928922</v>
       </c>
       <c r="S6">
-        <v>0.08663970653560611</v>
+        <v>0.06779302741206998</v>
       </c>
       <c r="T6">
-        <v>0.08240477350721762</v>
+        <v>0.07849773951962066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.306257</v>
+        <v>57.6221965</v>
       </c>
       <c r="H7">
-        <v>94.612514</v>
+        <v>115.244393</v>
       </c>
       <c r="I7">
-        <v>0.5047150267666207</v>
+        <v>0.8110927351969359</v>
       </c>
       <c r="J7">
-        <v>0.4113396328056801</v>
+        <v>0.7758399834077285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>3767.266969418662</v>
+        <v>4970.631690812234</v>
       </c>
       <c r="R7">
-        <v>22603.60181651197</v>
+        <v>29823.7901448734</v>
       </c>
       <c r="S7">
-        <v>0.05667812117971844</v>
+        <v>0.09770711921366435</v>
       </c>
       <c r="T7">
-        <v>0.05390770497023657</v>
+        <v>0.1131353516140689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.309416</v>
       </c>
       <c r="I8">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J8">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>565.565181909676</v>
+        <v>692.6407102145961</v>
       </c>
       <c r="R8">
-        <v>3393.391091458056</v>
+        <v>4155.844261287576</v>
       </c>
       <c r="S8">
-        <v>0.008508866553795801</v>
+        <v>0.01361515651426509</v>
       </c>
       <c r="T8">
-        <v>0.00809295471101952</v>
+        <v>0.01576502850476572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.309416</v>
       </c>
       <c r="I9">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J9">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>408.1302877708159</v>
+        <v>408.130287770816</v>
       </c>
       <c r="R9">
         <v>3673.172589937344</v>
       </c>
       <c r="S9">
-        <v>0.006140275721143606</v>
+        <v>0.008022568792541949</v>
       </c>
       <c r="T9">
-        <v>0.008760210248370847</v>
+        <v>0.0139340328805645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>10.309416</v>
       </c>
       <c r="I10">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J10">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>290.491703335704</v>
+        <v>266.7146871292454</v>
       </c>
       <c r="R10">
-        <v>2614.425330021336</v>
+        <v>2400.432184163208</v>
       </c>
       <c r="S10">
-        <v>0.004370416032900513</v>
+        <v>0.005242779057547512</v>
       </c>
       <c r="T10">
-        <v>0.006235186343379503</v>
+        <v>0.009105943203792105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>10.309416</v>
       </c>
       <c r="I11">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J11">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>480.790833522844</v>
+        <v>591.209754551988</v>
       </c>
       <c r="R11">
-        <v>2884.745001137064</v>
+        <v>3547.258527311928</v>
       </c>
       <c r="S11">
-        <v>0.007233445716938575</v>
+        <v>0.01162134021618751</v>
       </c>
       <c r="T11">
-        <v>0.006879876211677969</v>
+        <v>0.01345638293469633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.309416</v>
       </c>
       <c r="I12">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J12">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>418.333021934048</v>
+        <v>205.6806351000613</v>
       </c>
       <c r="R12">
-        <v>3764.997197406432</v>
+        <v>1851.125715900552</v>
       </c>
       <c r="S12">
-        <v>0.006293774745227199</v>
+        <v>0.004043039915995062</v>
       </c>
       <c r="T12">
-        <v>0.008979204278111514</v>
+        <v>0.007022171150377872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.309416</v>
       </c>
       <c r="I13">
-        <v>0.03666405180741192</v>
+        <v>0.048371940731341</v>
       </c>
       <c r="J13">
-        <v>0.044821464017762</v>
+        <v>0.06940430618939848</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>273.6658589778534</v>
+        <v>296.4384849124747</v>
       </c>
       <c r="R13">
-        <v>2462.99273080068</v>
+        <v>2667.946364212272</v>
       </c>
       <c r="S13">
-        <v>0.004117273037406223</v>
+        <v>0.005827056234803884</v>
       </c>
       <c r="T13">
-        <v>0.005874032225202646</v>
+        <v>0.01012074751520195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H14">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I14">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J14">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>16.83680336305167</v>
+        <v>1403.710570155457</v>
       </c>
       <c r="R14">
-        <v>101.02082017831</v>
+        <v>5614.842280621828</v>
       </c>
       <c r="S14">
-        <v>0.0002533078725337564</v>
+        <v>0.02759257264487612</v>
       </c>
       <c r="T14">
-        <v>0.0002409262299978002</v>
+        <v>0.02129967896735907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H15">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I15">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J15">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>12.14998663549333</v>
+        <v>827.119732490148</v>
       </c>
       <c r="R15">
-        <v>109.34987971944</v>
+        <v>4962.718394940888</v>
       </c>
       <c r="S15">
-        <v>0.0001827952254110402</v>
+        <v>0.016258594748786</v>
       </c>
       <c r="T15">
-        <v>0.0002607903422781171</v>
+        <v>0.01882587316521061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H16">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I16">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J16">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>8.64790097429</v>
+        <v>540.5258744075735</v>
       </c>
       <c r="R16">
-        <v>77.83110876860999</v>
+        <v>3243.155246445442</v>
       </c>
       <c r="S16">
-        <v>0.0001301067281267432</v>
+        <v>0.01062505317914249</v>
       </c>
       <c r="T16">
-        <v>0.0001856207025351003</v>
+        <v>0.0123027793370082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H17">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I17">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J17">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>14.31308181923167</v>
+        <v>1198.149876848158</v>
       </c>
       <c r="R17">
-        <v>85.87849091539</v>
+        <v>4792.599507392631</v>
       </c>
       <c r="S17">
-        <v>0.0002153387568205239</v>
+        <v>0.02355189041051451</v>
       </c>
       <c r="T17">
-        <v>0.0002048130377245506</v>
+        <v>0.01818053398915439</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H18">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I18">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J18">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>12.45372073081333</v>
+        <v>416.8338321852215</v>
       </c>
       <c r="R18">
-        <v>112.08348657732</v>
+        <v>2501.002993111329</v>
       </c>
       <c r="S18">
-        <v>0.0001873648717888268</v>
+        <v>0.008193653335629627</v>
       </c>
       <c r="T18">
-        <v>0.0002673097666245309</v>
+        <v>0.009487454533411382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1023033333333333</v>
+        <v>6.9643785</v>
       </c>
       <c r="H19">
-        <v>0.30691</v>
+        <v>13.928757</v>
       </c>
       <c r="I19">
-        <v>0.001091484148104295</v>
+        <v>0.09803091776468004</v>
       </c>
       <c r="J19">
-        <v>0.001334329269639651</v>
+        <v>0.09377017240023366</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>8.146997732838891</v>
+        <v>600.7643335656491</v>
       </c>
       <c r="R19">
-        <v>73.32297959555001</v>
+        <v>3604.586001393894</v>
       </c>
       <c r="S19">
-        <v>0.0001225706934234048</v>
+        <v>0.0118091534457313</v>
       </c>
       <c r="T19">
-        <v>0.0001748691904795523</v>
+        <v>0.01367385240809002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H20">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I20">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J20">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>636.7483898122417</v>
+        <v>598.7927224501969</v>
       </c>
       <c r="R20">
-        <v>2546.993559248967</v>
+        <v>3592.756334701182</v>
       </c>
       <c r="S20">
-        <v>0.009579810162574684</v>
+        <v>0.01177039771923952</v>
       </c>
       <c r="T20">
-        <v>0.006074367194558625</v>
+        <v>0.01362897704200624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H21">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I21">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J21">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>459.4984130638679</v>
+        <v>352.8314788961119</v>
       </c>
       <c r="R21">
-        <v>2756.990478383208</v>
+        <v>3175.483310065008</v>
       </c>
       <c r="S21">
-        <v>0.006913103570555041</v>
+        <v>0.006935566647305264</v>
       </c>
       <c r="T21">
-        <v>0.006575192330890555</v>
+        <v>0.01204606856082533</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H22">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I22">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J22">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>327.0535921752795</v>
+        <v>230.5767063187673</v>
       </c>
       <c r="R22">
-        <v>1962.321553051677</v>
+        <v>2075.190356868906</v>
       </c>
       <c r="S22">
-        <v>0.004920485667739435</v>
+        <v>0.004532419043202229</v>
       </c>
       <c r="T22">
-        <v>0.00467997322715934</v>
+        <v>0.007872151378145547</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H23">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I23">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J23">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>541.3041659467808</v>
+        <v>511.1049541942409</v>
       </c>
       <c r="R23">
-        <v>2165.216663787123</v>
+        <v>3066.629725165446</v>
       </c>
       <c r="S23">
-        <v>0.008143862211430264</v>
+        <v>0.01004672963045283</v>
       </c>
       <c r="T23">
-        <v>0.005163861142820638</v>
+        <v>0.01163313685287537</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H24">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I24">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J24">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>470.9852845296539</v>
+        <v>177.8123428648793</v>
       </c>
       <c r="R24">
-        <v>2825.911707177924</v>
+        <v>1600.311085783914</v>
       </c>
       <c r="S24">
-        <v>0.007085922300472167</v>
+        <v>0.003495236191825101</v>
       </c>
       <c r="T24">
-        <v>0.006739563712859319</v>
+        <v>0.006070715911779493</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.8689935</v>
+        <v>2.970854</v>
       </c>
       <c r="H25">
-        <v>7.737987</v>
+        <v>8.912561999999999</v>
       </c>
       <c r="I25">
-        <v>0.04127866548208161</v>
+        <v>0.04181787996802165</v>
       </c>
       <c r="J25">
-        <v>0.03364185768528596</v>
+        <v>0.06000050652529664</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>308.1100121162726</v>
+        <v>256.2731367100226</v>
       </c>
       <c r="R25">
-        <v>1848.660072697635</v>
+        <v>2306.458230390203</v>
       </c>
       <c r="S25">
-        <v>0.004635481569310017</v>
+        <v>0.0050375307359967</v>
       </c>
       <c r="T25">
-        <v>0.004408900076997489</v>
+        <v>0.008749456779664662</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H26">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I26">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J26">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>6376.647560543856</v>
+        <v>9.830411677749666</v>
       </c>
       <c r="R26">
-        <v>38259.88536326314</v>
+        <v>58.982470066498</v>
       </c>
       <c r="S26">
-        <v>0.0959359679286631</v>
+        <v>0.0001932352395959421</v>
       </c>
       <c r="T26">
-        <v>0.09124663534159411</v>
+        <v>0.0002237476342753373</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H27">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I27">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J27">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>4601.596928421718</v>
+        <v>5.792452981434666</v>
       </c>
       <c r="R27">
-        <v>41414.37235579547</v>
+        <v>52.132076832912</v>
       </c>
       <c r="S27">
-        <v>0.06923052452785224</v>
+        <v>0.0001138615631173631</v>
       </c>
       <c r="T27">
-        <v>0.09876982370362139</v>
+        <v>0.0001977609423286864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H28">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I28">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J28">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>3275.242661118554</v>
+        <v>3.785389937837111</v>
       </c>
       <c r="R28">
-        <v>29477.18395006699</v>
+        <v>34.068509440534</v>
       </c>
       <c r="S28">
-        <v>0.04927566905843859</v>
+        <v>7.440896226733277E-05</v>
       </c>
       <c r="T28">
-        <v>0.07030062503458198</v>
+        <v>0.0001292375239967476</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H29">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I29">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J29">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>5420.831751635166</v>
+        <v>8.390836965599</v>
       </c>
       <c r="R29">
-        <v>32524.990509811</v>
+        <v>50.345021793594</v>
       </c>
       <c r="S29">
-        <v>0.08155582320237177</v>
+        <v>0.0001649376897539224</v>
       </c>
       <c r="T29">
-        <v>0.0775693894626038</v>
+        <v>0.0001909818207199028</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H30">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I30">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J30">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>4716.630954549659</v>
+        <v>2.919154602605111</v>
       </c>
       <c r="R30">
-        <v>42449.67859094693</v>
+        <v>26.272391423446</v>
       </c>
       <c r="S30">
-        <v>0.07096119892008318</v>
+        <v>5.738147674209339E-05</v>
       </c>
       <c r="T30">
-        <v>0.1012389427197607</v>
+        <v>9.966326301906814E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>38.74561499999999</v>
+        <v>0.04877266666666667</v>
       </c>
       <c r="H31">
-        <v>116.236845</v>
+        <v>0.146318</v>
       </c>
       <c r="I31">
-        <v>0.4133807101207389</v>
+        <v>0.0006865263390213715</v>
       </c>
       <c r="J31">
-        <v>0.5053540923856092</v>
+        <v>0.0009850314773426939</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>3085.534237031525</v>
+        <v>4.207249589639555</v>
       </c>
       <c r="R31">
-        <v>27769.80813328372</v>
+        <v>37.865246306756</v>
       </c>
       <c r="S31">
-        <v>0.04642152648333001</v>
+        <v>8.270140754471783E-05</v>
       </c>
       <c r="T31">
-        <v>0.06622867612344724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.269007</v>
-      </c>
-      <c r="H32">
-        <v>0.807021</v>
-      </c>
-      <c r="I32">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J32">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>164.5772705</v>
-      </c>
-      <c r="N32">
-        <v>329.154541</v>
-      </c>
-      <c r="O32">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P32">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q32">
-        <v>44.2724378053935</v>
-      </c>
-      <c r="R32">
-        <v>265.634626832361</v>
-      </c>
-      <c r="S32">
-        <v>0.0006660740041056487</v>
-      </c>
-      <c r="T32">
-        <v>0.0006335164284612905</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.269007</v>
-      </c>
-      <c r="H33">
-        <v>0.807021</v>
-      </c>
-      <c r="I33">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J33">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>118.764328</v>
-      </c>
-      <c r="N33">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O33">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P33">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q33">
-        <v>31.94843558229599</v>
-      </c>
-      <c r="R33">
-        <v>287.5359202406639</v>
-      </c>
-      <c r="S33">
-        <v>0.0004806607331349354</v>
-      </c>
-      <c r="T33">
-        <v>0.0006857491864573599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.269007</v>
-      </c>
-      <c r="H34">
-        <v>0.807021</v>
-      </c>
-      <c r="I34">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J34">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N34">
-        <v>253.595871</v>
-      </c>
-      <c r="O34">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P34">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q34">
-        <v>22.739688156699</v>
-      </c>
-      <c r="R34">
-        <v>204.657193410291</v>
-      </c>
-      <c r="S34">
-        <v>0.0003421161312422939</v>
-      </c>
-      <c r="T34">
-        <v>0.000488090335865821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.269007</v>
-      </c>
-      <c r="H35">
-        <v>0.807021</v>
-      </c>
-      <c r="I35">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J35">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>139.9082645</v>
-      </c>
-      <c r="N35">
-        <v>279.816529</v>
-      </c>
-      <c r="O35">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P35">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q35">
-        <v>37.6363025083515</v>
-      </c>
-      <c r="R35">
-        <v>225.817815050109</v>
-      </c>
-      <c r="S35">
-        <v>0.000566234071447838</v>
-      </c>
-      <c r="T35">
-        <v>0.0005385566534733457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.269007</v>
-      </c>
-      <c r="H36">
-        <v>0.807021</v>
-      </c>
-      <c r="I36">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J36">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>121.733284</v>
-      </c>
-      <c r="N36">
-        <v>365.199852</v>
-      </c>
-      <c r="O36">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P36">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q36">
-        <v>32.74710552898799</v>
-      </c>
-      <c r="R36">
-        <v>294.723949760892</v>
-      </c>
-      <c r="S36">
-        <v>0.0004926766354823588</v>
-      </c>
-      <c r="T36">
-        <v>0.0007028920373109234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.269007</v>
-      </c>
-      <c r="H37">
-        <v>0.807021</v>
-      </c>
-      <c r="I37">
-        <v>0.002870061675042444</v>
-      </c>
-      <c r="J37">
-        <v>0.003508623836023137</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N37">
-        <v>238.907105</v>
-      </c>
-      <c r="O37">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P37">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q37">
-        <v>21.422561198245</v>
-      </c>
-      <c r="R37">
-        <v>192.803050784205</v>
-      </c>
-      <c r="S37">
-        <v>0.0003223000996293686</v>
-      </c>
-      <c r="T37">
-        <v>0.0004598191944543963</v>
+        <v>0.0001436402930029518</v>
       </c>
     </row>
   </sheetData>
